--- a/資料_20171013_掲示板（Applicationスコープ版）/クラス仕様書_mukaiyama.xlsx
+++ b/資料_20171013_掲示板（Applicationスコープ版）/クラス仕様書_mukaiyama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BoardBeanクラス" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="123">
   <si>
     <t>クラス名</t>
     <rPh sb="3" eb="4">
@@ -670,6 +670,42 @@
   </si>
   <si>
     <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String型（名前）</t>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String型（コメント）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardBean&gt; （boardList）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt;（boardListのうち、条件に合致するリスト）</t>
+    <rPh sb="31" eb="33">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/17追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1955,66 +1991,83 @@
       <c r="B55" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C55" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
+      <c r="A56" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
+      <c r="C57" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
+      <c r="C58" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
@@ -2022,31 +2075,35 @@
     </row>
     <row r="69" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+    <row r="74" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
